--- a/OnBoard/output/trust/catch/Catch_Trust_64.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_64.xlsx
@@ -1023,7 +1023,7 @@
         <v>0.065</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16">
         <v>8.009761904761906</v>
@@ -1105,7 +1105,7 @@
         <v>0.012</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I18">
         <v>8.009761904761906</v>
@@ -1474,7 +1474,7 @@
         <v>0.124</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27">
         <v>8.009761904761906</v>
@@ -1556,7 +1556,7 @@
         <v>0.002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29">
         <v>8.009761904761906</v>
